--- a/GSEA_like_analysis/manual_gene_groups_with_ref.xlsx
+++ b/GSEA_like_analysis/manual_gene_groups_with_ref.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9220" yWindow="0" windowWidth="25600" windowHeight="16640" tabRatio="500"/>
+    <workbookView xWindow="3200" yWindow="0" windowWidth="25600" windowHeight="16860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="211">
   <si>
     <t>YNL172W</t>
   </si>
@@ -466,6 +466,192 @@
   </si>
   <si>
     <t>mitotic start control</t>
+  </si>
+  <si>
+    <t>YPL089C</t>
+  </si>
+  <si>
+    <t>RLM1</t>
+  </si>
+  <si>
+    <t>YJR042W</t>
+  </si>
+  <si>
+    <t>NUP85</t>
+  </si>
+  <si>
+    <t>YKL057C</t>
+  </si>
+  <si>
+    <t>NUP120</t>
+  </si>
+  <si>
+    <t>YDL116W</t>
+  </si>
+  <si>
+    <t>NUP84</t>
+  </si>
+  <si>
+    <t>YGL092W</t>
+  </si>
+  <si>
+    <t>NUP145</t>
+  </si>
+  <si>
+    <t>YKR082W</t>
+  </si>
+  <si>
+    <t>NUP133</t>
+  </si>
+  <si>
+    <t>YGL100W</t>
+  </si>
+  <si>
+    <t>SEH1</t>
+  </si>
+  <si>
+    <t>YFR002W</t>
+  </si>
+  <si>
+    <t>NIC96</t>
+  </si>
+  <si>
+    <t>YML103C</t>
+  </si>
+  <si>
+    <t>NUP188</t>
+  </si>
+  <si>
+    <t>YJL039C</t>
+  </si>
+  <si>
+    <t>NUP192</t>
+  </si>
+  <si>
+    <t>YER105C</t>
+  </si>
+  <si>
+    <t>NUP157</t>
+  </si>
+  <si>
+    <t>YBL079W</t>
+  </si>
+  <si>
+    <t>NUP170</t>
+  </si>
+  <si>
+    <t>YMR153W</t>
+  </si>
+  <si>
+    <t>NUP53</t>
+  </si>
+  <si>
+    <t>YDL088C</t>
+  </si>
+  <si>
+    <t>ASM4</t>
+  </si>
+  <si>
+    <t>YML031W</t>
+  </si>
+  <si>
+    <t>NDC1</t>
+  </si>
+  <si>
+    <t>YLR018C</t>
+  </si>
+  <si>
+    <t>POM34</t>
+  </si>
+  <si>
+    <t>YMR129W</t>
+  </si>
+  <si>
+    <t>POM152</t>
+  </si>
+  <si>
+    <t>YMR047C</t>
+  </si>
+  <si>
+    <t>NUP116</t>
+  </si>
+  <si>
+    <t>YKL068W</t>
+  </si>
+  <si>
+    <t>NUP100</t>
+  </si>
+  <si>
+    <t>YIL115C</t>
+  </si>
+  <si>
+    <t>NUP159</t>
+  </si>
+  <si>
+    <t>YDR192C</t>
+  </si>
+  <si>
+    <t>NUP42</t>
+  </si>
+  <si>
+    <t>YJL061W</t>
+  </si>
+  <si>
+    <t>NUP82</t>
+  </si>
+  <si>
+    <t>YDL207W</t>
+  </si>
+  <si>
+    <t>GLE1</t>
+  </si>
+  <si>
+    <t>YOR098C</t>
+  </si>
+  <si>
+    <t>NUP1</t>
+  </si>
+  <si>
+    <t>YAR002W</t>
+  </si>
+  <si>
+    <t>NUP60</t>
+  </si>
+  <si>
+    <t>YKR095W</t>
+  </si>
+  <si>
+    <t>MLP1</t>
+  </si>
+  <si>
+    <t>YIL149C</t>
+  </si>
+  <si>
+    <t>MLP2</t>
+  </si>
+  <si>
+    <t>nuclear pore complex</t>
+  </si>
+  <si>
+    <t>https://www.pnas.org/content/pnas/115/17/E3969.full.pdf</t>
+  </si>
+  <si>
+    <t>YGL172W</t>
+  </si>
+  <si>
+    <t>NUP49</t>
+  </si>
+  <si>
+    <t>YGR119C</t>
+  </si>
+  <si>
+    <t>NUP57</t>
+  </si>
+  <si>
+    <t>YLL023C</t>
+  </si>
+  <si>
+    <t>POM33</t>
   </si>
 </sst>
 </file>
@@ -514,8 +700,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -538,19 +744,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -880,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D164"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1450,160 +1676,161 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
+    <row r="49" spans="1:4">
+      <c r="A49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
         <v>99</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>100</v>
-      </c>
-      <c r="C49" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" t="s">
-        <v>103</v>
       </c>
       <c r="C50" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C52" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C53" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C54" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C55" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C56" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C57" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="C58" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C60" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -1614,23 +1841,23 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C63" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C64" t="s">
         <v>101</v>
@@ -1638,10 +1865,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C65" t="s">
         <v>101</v>
@@ -1649,10 +1876,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C66" t="s">
         <v>101</v>
@@ -1660,10 +1887,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C67" t="s">
         <v>101</v>
@@ -1671,10 +1898,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C68" t="s">
         <v>101</v>
@@ -1682,10 +1909,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C69" t="s">
         <v>101</v>
@@ -1693,10 +1920,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C70" t="s">
         <v>101</v>
@@ -1704,10 +1931,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C71" t="s">
         <v>101</v>
@@ -1715,10 +1942,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C72" t="s">
         <v>101</v>
@@ -1726,10 +1953,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C73" t="s">
         <v>101</v>
@@ -1737,32 +1964,32 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C74" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>148</v>
+      <c r="A75" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>148</v>
@@ -1770,10 +1997,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>148</v>
@@ -1781,10 +2008,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>148</v>
@@ -1792,10 +2019,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>148</v>
@@ -1803,10 +2030,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>148</v>
@@ -1814,10 +2041,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>148</v>
@@ -1825,10 +2052,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>148</v>
@@ -1836,10 +2063,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>148</v>
@@ -1847,10 +2074,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>148</v>
@@ -1858,10 +2085,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>148</v>
@@ -1869,10 +2096,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>148</v>
@@ -1880,10 +2107,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>148</v>
@@ -1891,10 +2118,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>148</v>
@@ -1902,10 +2129,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>148</v>
@@ -1913,10 +2140,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>148</v>
@@ -1924,10 +2151,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>148</v>
@@ -1935,10 +2162,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>148</v>
@@ -1946,10 +2173,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>148</v>
@@ -1957,10 +2184,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>148</v>
@@ -1968,10 +2195,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>148</v>
@@ -1979,10 +2206,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>148</v>
@@ -1990,10 +2217,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>148</v>
@@ -2001,10 +2228,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>148</v>
@@ -2012,10 +2239,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>148</v>
@@ -2023,10 +2250,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>148</v>
@@ -2034,10 +2261,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>148</v>
@@ -2045,10 +2272,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>148</v>
@@ -2056,10 +2283,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>148</v>
@@ -2067,10 +2294,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>148</v>
@@ -2078,10 +2305,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>148</v>
@@ -2089,10 +2316,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>148</v>
@@ -2100,10 +2327,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>148</v>
@@ -2111,21 +2338,21 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>99</v>
-      </c>
-      <c r="B109" t="s">
-        <v>100</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>148</v>
@@ -2133,10 +2360,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B110" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>148</v>
@@ -2144,10 +2371,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B111" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>148</v>
@@ -2155,10 +2382,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B112" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>148</v>
@@ -2166,10 +2393,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B113" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>148</v>
@@ -2177,10 +2404,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>148</v>
@@ -2188,10 +2415,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B115" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>148</v>
@@ -2199,10 +2426,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>148</v>
@@ -2210,10 +2437,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>148</v>
@@ -2221,10 +2448,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>148</v>
@@ -2232,10 +2459,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>148</v>
@@ -2243,10 +2470,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>148</v>
@@ -2254,10 +2481,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>148</v>
@@ -2276,10 +2503,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>148</v>
@@ -2287,10 +2514,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>148</v>
@@ -2298,10 +2525,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>148</v>
@@ -2309,10 +2536,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>148</v>
@@ -2320,10 +2547,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>148</v>
@@ -2331,85 +2558,444 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128" t="s">
+        <v>133</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
         <v>134</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
         <v>135</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
+      <c r="C129" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
         <v>136</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" t="s">
         <v>137</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
+      <c r="C130" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
         <v>138</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>139</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
+      <c r="C131" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
         <v>140</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
         <v>141</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
+      <c r="C132" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
         <v>142</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>143</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
+      <c r="C133" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
         <v>144</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B134" t="s">
         <v>145</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
+      <c r="C134" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
         <v>146</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" t="s">
         <v>147</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>148</v>
+      <c r="C135" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D1:D21"/>
-    <mergeCell ref="D35:D48"/>
+    <mergeCell ref="D35:D49"/>
+    <mergeCell ref="D136:D161"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/GSEA_like_analysis/manual_gene_groups_with_ref.xlsx
+++ b/GSEA_like_analysis/manual_gene_groups_with_ref.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="0" windowWidth="25600" windowHeight="16860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="362">
   <si>
     <t>YNL172W</t>
   </si>
@@ -652,6 +652,459 @@
   </si>
   <si>
     <t>POM33</t>
+  </si>
+  <si>
+    <t>YGR009C</t>
+  </si>
+  <si>
+    <t>SEC9</t>
+  </si>
+  <si>
+    <t>YPL232W</t>
+  </si>
+  <si>
+    <t>SSO1</t>
+  </si>
+  <si>
+    <t>YAL030W</t>
+  </si>
+  <si>
+    <t>SNC1</t>
+  </si>
+  <si>
+    <t>YOR106W</t>
+  </si>
+  <si>
+    <t>VAM3</t>
+  </si>
+  <si>
+    <t>YGL212W</t>
+  </si>
+  <si>
+    <t>VAM7</t>
+  </si>
+  <si>
+    <t>extended SNARE complex</t>
+  </si>
+  <si>
+    <t>SEC17</t>
+  </si>
+  <si>
+    <t>YBL050W</t>
+  </si>
+  <si>
+    <t>from SGD</t>
+  </si>
+  <si>
+    <t>SEC18</t>
+  </si>
+  <si>
+    <t>YBR080C</t>
+  </si>
+  <si>
+    <t>YDR468C</t>
+  </si>
+  <si>
+    <t>TLG1</t>
+  </si>
+  <si>
+    <t>YOL018C</t>
+  </si>
+  <si>
+    <t>TLG2</t>
+  </si>
+  <si>
+    <t>YMR197C</t>
+  </si>
+  <si>
+    <t>VTI1</t>
+  </si>
+  <si>
+    <t>YLR026C</t>
+  </si>
+  <si>
+    <t>SED5</t>
+  </si>
+  <si>
+    <t>YOR036W</t>
+  </si>
+  <si>
+    <t>PEP12</t>
+  </si>
+  <si>
+    <t>YDR498C</t>
+  </si>
+  <si>
+    <t>SEC20</t>
+  </si>
+  <si>
+    <t>YGL095C</t>
+  </si>
+  <si>
+    <t>VPS45</t>
+  </si>
+  <si>
+    <t>YGL098W</t>
+  </si>
+  <si>
+    <t>USE1</t>
+  </si>
+  <si>
+    <t>YHL031C</t>
+  </si>
+  <si>
+    <t>GOS1</t>
+  </si>
+  <si>
+    <t>YIL004C</t>
+  </si>
+  <si>
+    <t>BET1</t>
+  </si>
+  <si>
+    <t>YKL006C-A</t>
+  </si>
+  <si>
+    <t>SFT1</t>
+  </si>
+  <si>
+    <t>YKL196C</t>
+  </si>
+  <si>
+    <t>YKT6</t>
+  </si>
+  <si>
+    <t>YLR078C</t>
+  </si>
+  <si>
+    <t>BOS1</t>
+  </si>
+  <si>
+    <t>YLR093C</t>
+  </si>
+  <si>
+    <t>NYV1</t>
+  </si>
+  <si>
+    <t>YLR268W</t>
+  </si>
+  <si>
+    <t>SEC22</t>
+  </si>
+  <si>
+    <t>YMR017W</t>
+  </si>
+  <si>
+    <t>SPO20</t>
+  </si>
+  <si>
+    <t>YNR049C</t>
+  </si>
+  <si>
+    <t>MSO1</t>
+  </si>
+  <si>
+    <t>YOR075W</t>
+  </si>
+  <si>
+    <t>UFE1</t>
+  </si>
+  <si>
+    <t>YOR327C</t>
+  </si>
+  <si>
+    <t>SNC2</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plosgenetics/article?id=10.1371/journal.pgen.1005429#sec022</t>
+  </si>
+  <si>
+    <t>DEP1</t>
+  </si>
+  <si>
+    <t>RER1</t>
+  </si>
+  <si>
+    <t>ERV2</t>
+  </si>
+  <si>
+    <t>RPL19A</t>
+  </si>
+  <si>
+    <t>DIE2</t>
+  </si>
+  <si>
+    <t>MNT3</t>
+  </si>
+  <si>
+    <t>LCB5</t>
+  </si>
+  <si>
+    <t>GLC3</t>
+  </si>
+  <si>
+    <t>TPK2</t>
+  </si>
+  <si>
+    <t>YKL063C</t>
+  </si>
+  <si>
+    <t>HOR7</t>
+  </si>
+  <si>
+    <t>AXL1</t>
+  </si>
+  <si>
+    <t>YLR046C</t>
+  </si>
+  <si>
+    <t>KRE1</t>
+  </si>
+  <si>
+    <t>PGU1</t>
+  </si>
+  <si>
+    <t>ERP1</t>
+  </si>
+  <si>
+    <t>TPO3</t>
+  </si>
+  <si>
+    <t>FET4</t>
+  </si>
+  <si>
+    <t>HOC1</t>
+  </si>
+  <si>
+    <t>YMR086W</t>
+  </si>
+  <si>
+    <t>NCR1</t>
+  </si>
+  <si>
+    <t>GLC8</t>
+  </si>
+  <si>
+    <t>RSM19</t>
+  </si>
+  <si>
+    <t>ENO1</t>
+  </si>
+  <si>
+    <t>YKL077W</t>
+  </si>
+  <si>
+    <t>SUR1</t>
+  </si>
+  <si>
+    <t>OTU1</t>
+  </si>
+  <si>
+    <t>TWF1</t>
+  </si>
+  <si>
+    <t>FRT2</t>
+  </si>
+  <si>
+    <t>SLM3</t>
+  </si>
+  <si>
+    <t>LTP1</t>
+  </si>
+  <si>
+    <t>RSM7</t>
+  </si>
+  <si>
+    <t>TUP1</t>
+  </si>
+  <si>
+    <t>CUP9</t>
+  </si>
+  <si>
+    <t>RPL26B</t>
+  </si>
+  <si>
+    <t>GIP3</t>
+  </si>
+  <si>
+    <t>YJR154W</t>
+  </si>
+  <si>
+    <t>MRP13</t>
+  </si>
+  <si>
+    <t>LYS2</t>
+  </si>
+  <si>
+    <t>GNT1</t>
+  </si>
+  <si>
+    <t>RPL37A</t>
+  </si>
+  <si>
+    <t>YML018C</t>
+  </si>
+  <si>
+    <t>LAP2</t>
+  </si>
+  <si>
+    <t>YNR014W</t>
+  </si>
+  <si>
+    <t>CTI6</t>
+  </si>
+  <si>
+    <t>YNG1</t>
+  </si>
+  <si>
+    <t>RPL35B</t>
+  </si>
+  <si>
+    <t>ATG10</t>
+  </si>
+  <si>
+    <t>TNA1</t>
+  </si>
+  <si>
+    <t>phenotype: delayed exit from mitosis</t>
+  </si>
+  <si>
+    <t>YLL042C</t>
+  </si>
+  <si>
+    <t>YPR122W</t>
+  </si>
+  <si>
+    <t>YPL181W</t>
+  </si>
+  <si>
+    <t>YPL177C</t>
+  </si>
+  <si>
+    <t>YAL013W</t>
+  </si>
+  <si>
+    <t>YGR227W</t>
+  </si>
+  <si>
+    <t>YGR254W</t>
+  </si>
+  <si>
+    <t>YAR002C-A</t>
+  </si>
+  <si>
+    <t>YPR037C</t>
+  </si>
+  <si>
+    <t>YMR319C</t>
+  </si>
+  <si>
+    <t>YAL028W</t>
+  </si>
+  <si>
+    <t>YPL137C</t>
+  </si>
+  <si>
+    <t>YEL011W</t>
+  </si>
+  <si>
+    <t>YMR311C</t>
+  </si>
+  <si>
+    <t>YOR320C</t>
+  </si>
+  <si>
+    <t>GRX4</t>
+  </si>
+  <si>
+    <t>YER174C</t>
+  </si>
+  <si>
+    <t>YJR075W</t>
+  </si>
+  <si>
+    <t>YMR251W-A</t>
+  </si>
+  <si>
+    <t>YNL322C</t>
+  </si>
+  <si>
+    <t>YNL045W</t>
+  </si>
+  <si>
+    <t>YLR260W</t>
+  </si>
+  <si>
+    <t>YPR073C</t>
+  </si>
+  <si>
+    <t>YBR115C</t>
+  </si>
+  <si>
+    <t>YIL014W</t>
+  </si>
+  <si>
+    <t>YGR084C</t>
+  </si>
+  <si>
+    <t>YPL006W</t>
+  </si>
+  <si>
+    <t>YFL044C</t>
+  </si>
+  <si>
+    <t>YJR153W</t>
+  </si>
+  <si>
+    <t>PSG1</t>
+  </si>
+  <si>
+    <t>YCL001W</t>
+  </si>
+  <si>
+    <t>YBR084C-A</t>
+  </si>
+  <si>
+    <t>YGR034W</t>
+  </si>
+  <si>
+    <t>YDL136W</t>
+  </si>
+  <si>
+    <t>YLR185W</t>
+  </si>
+  <si>
+    <t>YNR037C</t>
+  </si>
+  <si>
+    <t>YJR113C</t>
+  </si>
+  <si>
+    <t>SEG1</t>
+  </si>
+  <si>
+    <t>YDL033C</t>
+  </si>
+  <si>
+    <t>YPL057C</t>
+  </si>
+  <si>
+    <t>YGR260W</t>
+  </si>
+  <si>
+    <t>YPL203W</t>
+  </si>
+  <si>
+    <t>YPR156C</t>
+  </si>
+  <si>
+    <t>YCR084C</t>
+  </si>
+  <si>
+    <t>YGR080W</t>
+  </si>
+  <si>
+    <t>YOR064C</t>
   </si>
 </sst>
 </file>
@@ -700,7 +1153,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -734,8 +1187,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -743,8 +1234,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -761,6 +1255,25 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -777,6 +1290,25 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1106,597 +1638,597 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D164"/>
+  <dimension ref="A1:D248"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="C153" sqref="C153"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="A193" sqref="A193:C242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="40.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="115.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="1"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="1"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="1"/>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="1"/>
+      <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="1"/>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="1"/>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="1"/>
+      <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="1"/>
+      <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="1"/>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="1"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="1"/>
+      <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="1"/>
+      <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
@@ -1985,376 +2517,376 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2365,7 +2897,7 @@
       <c r="B110" t="s">
         <v>100</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2376,7 +2908,7 @@
       <c r="B111" t="s">
         <v>103</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2387,7 +2919,7 @@
       <c r="B112" t="s">
         <v>105</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2398,7 +2930,7 @@
       <c r="B113" t="s">
         <v>107</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2409,7 +2941,7 @@
       <c r="B114" t="s">
         <v>109</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2420,7 +2952,7 @@
       <c r="B115" t="s">
         <v>111</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2431,7 +2963,7 @@
       <c r="B116" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2442,7 +2974,7 @@
       <c r="B117" t="s">
         <v>115</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2453,7 +2985,7 @@
       <c r="B118" t="s">
         <v>117</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2464,7 +2996,7 @@
       <c r="B119" t="s">
         <v>61</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2475,7 +3007,7 @@
       <c r="B120" t="s">
         <v>119</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2486,7 +3018,7 @@
       <c r="B121" t="s">
         <v>121</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2497,7 +3029,7 @@
       <c r="B122" t="s">
         <v>123</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2508,7 +3040,7 @@
       <c r="B123" t="s">
         <v>123</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2519,7 +3051,7 @@
       <c r="B124" t="s">
         <v>125</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2530,7 +3062,7 @@
       <c r="B125" t="s">
         <v>127</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2541,7 +3073,7 @@
       <c r="B126" t="s">
         <v>129</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2552,7 +3084,7 @@
       <c r="B127" t="s">
         <v>131</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2563,7 +3095,7 @@
       <c r="B128" t="s">
         <v>133</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2574,7 +3106,7 @@
       <c r="B129" t="s">
         <v>135</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2585,7 +3117,7 @@
       <c r="B130" t="s">
         <v>137</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2596,7 +3128,7 @@
       <c r="B131" t="s">
         <v>139</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2607,7 +3139,7 @@
       <c r="B132" t="s">
         <v>141</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2618,7 +3150,7 @@
       <c r="B133" t="s">
         <v>143</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2629,7 +3161,7 @@
       <c r="B134" t="s">
         <v>145</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2640,362 +3172,1322 @@
       <c r="B135" t="s">
         <v>147</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="3" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D137" s="1"/>
+      <c r="D137" s="3"/>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D138" s="1"/>
+      <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D139" s="1"/>
+      <c r="D139" s="3"/>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D140" s="1"/>
+      <c r="D140" s="3"/>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D141" s="1"/>
+      <c r="D141" s="3"/>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D142" s="1"/>
+      <c r="D142" s="3"/>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D143" s="1"/>
+      <c r="D143" s="3"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D144" s="1"/>
+      <c r="D144" s="3"/>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D145" s="1"/>
+      <c r="D145" s="3"/>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="2" t="s">
+      <c r="A146" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D146" s="1"/>
+      <c r="D146" s="3"/>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D147" s="1"/>
+      <c r="D147" s="3"/>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D148" s="1"/>
+      <c r="D148" s="3"/>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="2" t="s">
+      <c r="A149" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D149" s="1"/>
+      <c r="D149" s="3"/>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D150" s="1"/>
+      <c r="D150" s="3"/>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="2" t="s">
+      <c r="A151" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D151" s="1"/>
+      <c r="D151" s="3"/>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="2" t="s">
+      <c r="A152" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D152" s="1"/>
+      <c r="D152" s="3"/>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D153" s="1"/>
+      <c r="D153" s="3"/>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="2" t="s">
+      <c r="A154" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D154" s="1"/>
+      <c r="D154" s="3"/>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D155" s="1"/>
+      <c r="D155" s="3"/>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D156" s="1"/>
+      <c r="D156" s="3"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="2" t="s">
+      <c r="A157" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D157" s="1"/>
+      <c r="D157" s="3"/>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="2" t="s">
+      <c r="A158" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D158" s="1"/>
+      <c r="D158" s="3"/>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D159" s="1"/>
+      <c r="D159" s="3"/>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="2" t="s">
+      <c r="A160" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D160" s="1"/>
+      <c r="D160" s="3"/>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D161" s="1"/>
+      <c r="D161" s="3"/>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="2" t="s">
+      <c r="A163" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="1" t="s">
         <v>203</v>
       </c>
     </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D166" s="3"/>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D167" s="3"/>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D168" s="3"/>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D169" s="3"/>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D170" s="3"/>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D171" s="3"/>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D172" s="3"/>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D173" s="3"/>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D174" s="3"/>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D175" s="3"/>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D176" s="3"/>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D177" s="3"/>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D178" s="3"/>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D179" s="3"/>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D180" s="3"/>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D181" s="3"/>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D182" s="3"/>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D183" s="3"/>
+    </row>
+    <row r="184" spans="1:4" ht="15" customHeight="1">
+      <c r="A184" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D184" s="3"/>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D185" s="3"/>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D186" s="3"/>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D187" s="3"/>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D188" s="3"/>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D189" s="3"/>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D190" s="3"/>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D191" s="3"/>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D192" s="3"/>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>316</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>317</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D194" s="3"/>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>318</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D195" s="3"/>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>319</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D196" s="3"/>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>320</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D197" s="3"/>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>321</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D198" s="3"/>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>322</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D199" s="3"/>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>323</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D200" s="3"/>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>324</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D201" s="3"/>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>325</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D202" s="3"/>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>326</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D203" s="3"/>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>327</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D204" s="3"/>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>328</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D205" s="3"/>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>329</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D206" s="3"/>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>330</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D207" s="3"/>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>332</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D208" s="3"/>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>333</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D209" s="3"/>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>334</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D210" s="3"/>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>335</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D211" s="3"/>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>336</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D212" s="3"/>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>337</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D213" s="3"/>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>338</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D214" s="3"/>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>339</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D215" s="3"/>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>340</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D216" s="3"/>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>341</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D217" s="3"/>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>342</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D218" s="3"/>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>343</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D219" s="3"/>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>344</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D220" s="3"/>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>290</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D221" s="3"/>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>346</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D222" s="3"/>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>347</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D223" s="3"/>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>348</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D224" s="3"/>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>349</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D225" s="3"/>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>350</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D226" s="3"/>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>351</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D227" s="3"/>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>352</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D228" s="3"/>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>285</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D229" s="3"/>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>354</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D230" s="3"/>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>355</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D231" s="3"/>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>356</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D232" s="3"/>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>357</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D233" s="3"/>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>358</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D234" s="3"/>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>359</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D235" s="3"/>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>360</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D236" s="3"/>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>361</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D237" s="3"/>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>302</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D238" s="3"/>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>275</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D239" s="3"/>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>278</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D240" s="3"/>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>307</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D241" s="3"/>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>309</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D242" s="3"/>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="D243" s="2"/>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="D244" s="2"/>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="D245" s="2"/>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="D246" s="2"/>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="D247" s="2"/>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="D248" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="D1:D21"/>
     <mergeCell ref="D35:D49"/>
     <mergeCell ref="D136:D161"/>
+    <mergeCell ref="D165:D192"/>
+    <mergeCell ref="D193:D242"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
